--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl12-Ccr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl12-Ccr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Ccr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>40.32940166666667</v>
+        <v>1.005755333333333</v>
       </c>
       <c r="H2">
-        <v>120.988205</v>
+        <v>3.017266</v>
       </c>
       <c r="I2">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="J2">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1152486666666667</v>
+        <v>3.702912333333333</v>
       </c>
       <c r="N2">
-        <v>0.345746</v>
+        <v>11.108737</v>
       </c>
       <c r="O2">
-        <v>0.0002846832990270825</v>
+        <v>0.009823161582447691</v>
       </c>
       <c r="P2">
-        <v>0.0002846832990270825</v>
+        <v>0.009823161582447689</v>
       </c>
       <c r="Q2">
-        <v>4.647909769547778</v>
+        <v>3.724223828115778</v>
       </c>
       <c r="R2">
-        <v>41.83118792593</v>
+        <v>33.518014453042</v>
       </c>
       <c r="S2">
-        <v>0.0001339654253284392</v>
+        <v>0.000103018344251367</v>
       </c>
       <c r="T2">
-        <v>0.0001339654253284392</v>
+        <v>0.000103018344251367</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>40.32940166666667</v>
+        <v>1.005755333333333</v>
       </c>
       <c r="H3">
-        <v>120.988205</v>
+        <v>3.017266</v>
       </c>
       <c r="I3">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="J3">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.019916</v>
       </c>
       <c r="O3">
-        <v>1.63986064435261E-05</v>
+        <v>1.761119072996581E-05</v>
       </c>
       <c r="P3">
-        <v>1.63986064435261E-05</v>
+        <v>1.761119072996581E-05</v>
       </c>
       <c r="Q3">
-        <v>0.2677334545311111</v>
+        <v>0.006676874406222223</v>
       </c>
       <c r="R3">
-        <v>2.40960109078</v>
+        <v>0.060091869656</v>
       </c>
       <c r="S3">
-        <v>7.716807745689598E-06</v>
+        <v>1.846936644652066E-07</v>
       </c>
       <c r="T3">
-        <v>7.7168077456896E-06</v>
+        <v>1.846936644652066E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>40.32940166666667</v>
+        <v>1.005755333333333</v>
       </c>
       <c r="H4">
-        <v>120.988205</v>
+        <v>3.017266</v>
       </c>
       <c r="I4">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="J4">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>153.646004</v>
+        <v>301.3939006666666</v>
       </c>
       <c r="N4">
-        <v>460.938012</v>
+        <v>904.181702</v>
       </c>
       <c r="O4">
-        <v>0.3795310832320401</v>
+        <v>0.7995439048236145</v>
       </c>
       <c r="P4">
-        <v>0.3795310832320402</v>
+        <v>0.7995439048236146</v>
       </c>
       <c r="Q4">
-        <v>6196.451409794273</v>
+        <v>303.1285230296369</v>
       </c>
       <c r="R4">
-        <v>55768.06268814846</v>
+        <v>2728.156707266732</v>
       </c>
       <c r="S4">
-        <v>0.1785986152482609</v>
+        <v>0.008385048799194989</v>
       </c>
       <c r="T4">
-        <v>0.178598615248261</v>
+        <v>0.008385048799194989</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>40.32940166666667</v>
+        <v>1.005755333333333</v>
       </c>
       <c r="H5">
-        <v>120.988205</v>
+        <v>3.017266</v>
       </c>
       <c r="I5">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="J5">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.02990166666666667</v>
+        <v>0.075583</v>
       </c>
       <c r="N5">
-        <v>0.08970500000000001</v>
+        <v>0.226749</v>
       </c>
       <c r="O5">
-        <v>7.386207024585806E-05</v>
+        <v>0.0002005081284810714</v>
       </c>
       <c r="P5">
-        <v>7.386207024585807E-05</v>
+        <v>0.0002005081284810714</v>
       </c>
       <c r="Q5">
-        <v>1.205916325502778</v>
+        <v>0.07601800535933333</v>
       </c>
       <c r="R5">
-        <v>10.853246929525</v>
+        <v>0.684162048234</v>
       </c>
       <c r="S5">
-        <v>3.47577946790061E-05</v>
+        <v>2.102786891133818E-06</v>
       </c>
       <c r="T5">
-        <v>3.47577946790061E-05</v>
+        <v>2.102786891133818E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>40.32940166666667</v>
+        <v>1.005755333333333</v>
       </c>
       <c r="H6">
-        <v>120.988205</v>
+        <v>3.017266</v>
       </c>
       <c r="I6">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="J6">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.38673933333333</v>
+        <v>19.983405</v>
       </c>
       <c r="N6">
-        <v>79.160218</v>
+        <v>59.950215</v>
       </c>
       <c r="O6">
-        <v>0.06517961744154102</v>
+        <v>0.05301238555269418</v>
       </c>
       <c r="P6">
-        <v>0.06517961744154102</v>
+        <v>0.05301238555269418</v>
       </c>
       <c r="Q6">
-        <v>1064.161409247632</v>
+        <v>20.09841615691</v>
       </c>
       <c r="R6">
-        <v>9577.45268322869</v>
+        <v>180.88574541219</v>
       </c>
       <c r="S6">
-        <v>0.03067203170379982</v>
+        <v>0.0005559562609874973</v>
       </c>
       <c r="T6">
-        <v>0.03067203170379982</v>
+        <v>0.0005559562609874973</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>40.32940166666667</v>
+        <v>1.005755333333333</v>
       </c>
       <c r="H7">
-        <v>120.988205</v>
+        <v>3.017266</v>
       </c>
       <c r="I7">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="J7">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>224.6466153333333</v>
+        <v>51.79484666666666</v>
       </c>
       <c r="N7">
-        <v>673.939846</v>
+        <v>155.38454</v>
       </c>
       <c r="O7">
-        <v>0.5549143553507024</v>
+        <v>0.1374024287220326</v>
       </c>
       <c r="P7">
-        <v>0.5549143553507024</v>
+        <v>0.1374024287220326</v>
       </c>
       <c r="Q7">
-        <v>9059.86358283516</v>
+        <v>52.09294327418222</v>
       </c>
       <c r="R7">
-        <v>81538.77224551643</v>
+        <v>468.8364894676399</v>
       </c>
       <c r="S7">
-        <v>0.2611299570065101</v>
+        <v>0.001440979116983354</v>
       </c>
       <c r="T7">
-        <v>0.2611299570065101</v>
+        <v>0.001440979116983353</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.718179666666666</v>
+        <v>38.755371</v>
       </c>
       <c r="H8">
-        <v>29.154539</v>
+        <v>116.266113</v>
       </c>
       <c r="I8">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="J8">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.1152486666666667</v>
+        <v>3.702912333333333</v>
       </c>
       <c r="N8">
-        <v>0.345746</v>
+        <v>11.108737</v>
       </c>
       <c r="O8">
-        <v>0.0002846832990270825</v>
+        <v>0.009823161582447691</v>
       </c>
       <c r="P8">
-        <v>0.0002846832990270825</v>
+        <v>0.009823161582447689</v>
       </c>
       <c r="Q8">
-        <v>1.120007249010444</v>
+        <v>143.507741258809</v>
       </c>
       <c r="R8">
-        <v>10.080065241094</v>
+        <v>1291.569671329281</v>
       </c>
       <c r="S8">
-        <v>3.228166098827212E-05</v>
+        <v>0.003969667392202855</v>
       </c>
       <c r="T8">
-        <v>3.228166098827212E-05</v>
+        <v>0.003969667392202854</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.718179666666666</v>
+        <v>38.755371</v>
       </c>
       <c r="H9">
-        <v>29.154539</v>
+        <v>116.266113</v>
       </c>
       <c r="I9">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="J9">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,22 +1001,22 @@
         <v>0.019916</v>
       </c>
       <c r="O9">
-        <v>1.63986064435261E-05</v>
+        <v>1.761119072996581E-05</v>
       </c>
       <c r="P9">
-        <v>1.63986064435261E-05</v>
+        <v>1.761119072996581E-05</v>
       </c>
       <c r="Q9">
-        <v>0.06451575541377777</v>
+        <v>0.257283989612</v>
       </c>
       <c r="R9">
-        <v>0.580641798724</v>
+        <v>2.315555906508</v>
       </c>
       <c r="S9">
-        <v>1.859519879456096E-06</v>
+        <v>7.116911290915614E-06</v>
       </c>
       <c r="T9">
-        <v>1.859519879456097E-06</v>
+        <v>7.116911290915614E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.718179666666666</v>
+        <v>38.755371</v>
       </c>
       <c r="H10">
-        <v>29.154539</v>
+        <v>116.266113</v>
       </c>
       <c r="I10">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="J10">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.646004</v>
+        <v>301.3939006666666</v>
       </c>
       <c r="N10">
-        <v>460.938012</v>
+        <v>904.181702</v>
       </c>
       <c r="O10">
-        <v>0.3795310832320401</v>
+        <v>0.7995439048236145</v>
       </c>
       <c r="P10">
-        <v>0.3795310832320402</v>
+        <v>0.7995439048236146</v>
       </c>
       <c r="Q10">
-        <v>1493.159471937385</v>
+        <v>11680.63243747381</v>
       </c>
       <c r="R10">
-        <v>13438.43524743647</v>
+        <v>105125.6919372643</v>
       </c>
       <c r="S10">
-        <v>0.04303692491017135</v>
+        <v>0.32310609379409</v>
       </c>
       <c r="T10">
-        <v>0.04303692491017135</v>
+        <v>0.3231060937940901</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.718179666666666</v>
+        <v>38.755371</v>
       </c>
       <c r="H11">
-        <v>29.154539</v>
+        <v>116.266113</v>
       </c>
       <c r="I11">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="J11">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.02990166666666667</v>
+        <v>0.075583</v>
       </c>
       <c r="N11">
-        <v>0.08970500000000001</v>
+        <v>0.226749</v>
       </c>
       <c r="O11">
-        <v>7.386207024585806E-05</v>
+        <v>0.0002005081284810714</v>
       </c>
       <c r="P11">
-        <v>7.386207024585807E-05</v>
+        <v>0.0002005081284810714</v>
       </c>
       <c r="Q11">
-        <v>0.2905897689994444</v>
+        <v>2.929247206293</v>
       </c>
       <c r="R11">
-        <v>2.615307920995</v>
+        <v>26.363224856637</v>
       </c>
       <c r="S11">
-        <v>8.375589013185836E-06</v>
+        <v>8.102794327695444E-05</v>
       </c>
       <c r="T11">
-        <v>8.37558901318584E-06</v>
+        <v>8.102794327695445E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.718179666666666</v>
+        <v>38.755371</v>
       </c>
       <c r="H12">
-        <v>29.154539</v>
+        <v>116.266113</v>
       </c>
       <c r="I12">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="J12">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.38673933333333</v>
+        <v>19.983405</v>
       </c>
       <c r="N12">
-        <v>79.160218</v>
+        <v>59.950215</v>
       </c>
       <c r="O12">
-        <v>0.06517961744154102</v>
+        <v>0.05301238555269418</v>
       </c>
       <c r="P12">
-        <v>0.06517961744154102</v>
+        <v>0.05301238555269418</v>
       </c>
       <c r="Q12">
-        <v>256.4310736588336</v>
+        <v>774.464274618255</v>
       </c>
       <c r="R12">
-        <v>2307.879662929502</v>
+        <v>6970.178471564294</v>
       </c>
       <c r="S12">
-        <v>0.007391042329437552</v>
+        <v>0.0214229946789676</v>
       </c>
       <c r="T12">
-        <v>0.007391042329437553</v>
+        <v>0.0214229946789676</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,14 +1210,14 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.718179666666666</v>
+        <v>38.755371</v>
       </c>
       <c r="H13">
-        <v>29.154539</v>
+        <v>116.266113</v>
       </c>
       <c r="I13">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="J13">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>224.6466153333333</v>
+        <v>51.79484666666666</v>
       </c>
       <c r="N13">
-        <v>673.939846</v>
+        <v>155.38454</v>
       </c>
       <c r="O13">
-        <v>0.5549143553507024</v>
+        <v>0.1374024287220326</v>
       </c>
       <c r="P13">
-        <v>0.5549143553507024</v>
+        <v>0.1374024287220326</v>
       </c>
       <c r="Q13">
-        <v>2183.156169317888</v>
+        <v>2007.32849845478</v>
       </c>
       <c r="R13">
-        <v>19648.40552386099</v>
+        <v>18065.95648609302</v>
       </c>
       <c r="S13">
-        <v>0.06292451000173629</v>
+        <v>0.05552610901585303</v>
       </c>
       <c r="T13">
-        <v>0.06292451000173631</v>
+        <v>0.05552610901585302</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1272,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>35.65443533333333</v>
+        <v>7.988471999999999</v>
       </c>
       <c r="H14">
-        <v>106.963306</v>
+        <v>23.965416</v>
       </c>
       <c r="I14">
-        <v>0.41602796200245</v>
+        <v>0.08329801469605898</v>
       </c>
       <c r="J14">
-        <v>0.41602796200245</v>
+        <v>0.08329801469605898</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.1152486666666667</v>
+        <v>3.702912333333333</v>
       </c>
       <c r="N14">
-        <v>0.345746</v>
+        <v>11.108737</v>
       </c>
       <c r="O14">
-        <v>0.0002846832990270825</v>
+        <v>0.009823161582447691</v>
       </c>
       <c r="P14">
-        <v>0.0002846832990270825</v>
+        <v>0.009823161582447689</v>
       </c>
       <c r="Q14">
-        <v>4.109126132919555</v>
+        <v>29.580611493288</v>
       </c>
       <c r="R14">
-        <v>36.982135196276</v>
+        <v>266.225503439592</v>
       </c>
       <c r="S14">
-        <v>0.0001184362127103712</v>
+        <v>0.0008182498578564898</v>
       </c>
       <c r="T14">
-        <v>0.0001184362127103712</v>
+        <v>0.0008182498578564896</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>35.65443533333333</v>
+        <v>7.988471999999999</v>
       </c>
       <c r="H15">
-        <v>106.963306</v>
+        <v>23.965416</v>
       </c>
       <c r="I15">
-        <v>0.41602796200245</v>
+        <v>0.08329801469605898</v>
       </c>
       <c r="J15">
-        <v>0.41602796200245</v>
+        <v>0.08329801469605898</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.019916</v>
       </c>
       <c r="O15">
-        <v>1.63986064435261E-05</v>
+        <v>1.761119072996581E-05</v>
       </c>
       <c r="P15">
-        <v>1.63986064435261E-05</v>
+        <v>1.761119072996581E-05</v>
       </c>
       <c r="Q15">
-        <v>0.2366979113662222</v>
+        <v>0.05303280278399999</v>
       </c>
       <c r="R15">
-        <v>2.130281202296</v>
+        <v>0.477295225056</v>
       </c>
       <c r="S15">
-        <v>6.822278818380407E-06</v>
+        <v>1.46697722423979E-06</v>
       </c>
       <c r="T15">
-        <v>6.822278818380409E-06</v>
+        <v>1.46697722423979E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>35.65443533333333</v>
+        <v>7.988471999999999</v>
       </c>
       <c r="H16">
-        <v>106.963306</v>
+        <v>23.965416</v>
       </c>
       <c r="I16">
-        <v>0.41602796200245</v>
+        <v>0.08329801469605898</v>
       </c>
       <c r="J16">
-        <v>0.41602796200245</v>
+        <v>0.08329801469605898</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>153.646004</v>
+        <v>301.3939006666666</v>
       </c>
       <c r="N16">
-        <v>460.938012</v>
+        <v>904.181702</v>
       </c>
       <c r="O16">
-        <v>0.3795310832320401</v>
+        <v>0.7995439048236145</v>
       </c>
       <c r="P16">
-        <v>0.3795310832320402</v>
+        <v>0.7995439048236146</v>
       </c>
       <c r="Q16">
-        <v>5478.161513843073</v>
+        <v>2407.676736446448</v>
       </c>
       <c r="R16">
-        <v>49303.45362458766</v>
+        <v>21669.09062801803</v>
       </c>
       <c r="S16">
-        <v>0.1578955430736078</v>
+        <v>0.06660041993414181</v>
       </c>
       <c r="T16">
-        <v>0.1578955430736079</v>
+        <v>0.06660041993414183</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>35.65443533333333</v>
+        <v>7.988471999999999</v>
       </c>
       <c r="H17">
-        <v>106.963306</v>
+        <v>23.965416</v>
       </c>
       <c r="I17">
-        <v>0.41602796200245</v>
+        <v>0.08329801469605898</v>
       </c>
       <c r="J17">
-        <v>0.41602796200245</v>
+        <v>0.08329801469605898</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.02990166666666667</v>
+        <v>0.075583</v>
       </c>
       <c r="N17">
-        <v>0.08970500000000001</v>
+        <v>0.226749</v>
       </c>
       <c r="O17">
-        <v>7.386207024585806E-05</v>
+        <v>0.0002005081284810714</v>
       </c>
       <c r="P17">
-        <v>7.386207024585807E-05</v>
+        <v>0.0002005081284810714</v>
       </c>
       <c r="Q17">
-        <v>1.066127040525556</v>
+        <v>0.6037926791759999</v>
       </c>
       <c r="R17">
-        <v>9.595143364729999</v>
+        <v>5.434134112583999</v>
       </c>
       <c r="S17">
-        <v>3.072868655366613E-05</v>
+        <v>1.670192903289556E-05</v>
       </c>
       <c r="T17">
-        <v>3.072868655366613E-05</v>
+        <v>1.670192903289557E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>35.65443533333333</v>
+        <v>7.988471999999999</v>
       </c>
       <c r="H18">
-        <v>106.963306</v>
+        <v>23.965416</v>
       </c>
       <c r="I18">
-        <v>0.41602796200245</v>
+        <v>0.08329801469605898</v>
       </c>
       <c r="J18">
-        <v>0.41602796200245</v>
+        <v>0.08329801469605898</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>26.38673933333333</v>
+        <v>19.983405</v>
       </c>
       <c r="N18">
-        <v>79.160218</v>
+        <v>59.950215</v>
       </c>
       <c r="O18">
-        <v>0.06517961744154102</v>
+        <v>0.05301238555269418</v>
       </c>
       <c r="P18">
-        <v>0.06517961744154102</v>
+        <v>0.05301238555269418</v>
       </c>
       <c r="Q18">
-        <v>940.8042912178564</v>
+        <v>159.63687130716</v>
       </c>
       <c r="R18">
-        <v>8467.238620960707</v>
+        <v>1436.73184176444</v>
       </c>
       <c r="S18">
-        <v>0.02711654340830365</v>
+        <v>0.004415826470841465</v>
       </c>
       <c r="T18">
-        <v>0.02711654340830365</v>
+        <v>0.004415826470841464</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>7.988471999999999</v>
+      </c>
+      <c r="H19">
+        <v>23.965416</v>
+      </c>
+      <c r="I19">
+        <v>0.08329801469605898</v>
+      </c>
+      <c r="J19">
+        <v>0.08329801469605898</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>51.79484666666666</v>
+      </c>
+      <c r="N19">
+        <v>155.38454</v>
+      </c>
+      <c r="O19">
+        <v>0.1374024287220326</v>
+      </c>
+      <c r="P19">
+        <v>0.1374024287220326</v>
+      </c>
+      <c r="Q19">
+        <v>413.7616823409599</v>
+      </c>
+      <c r="R19">
+        <v>3723.855141068639</v>
+      </c>
+      <c r="S19">
+        <v>0.01144534952696207</v>
+      </c>
+      <c r="T19">
+        <v>0.01144534952696207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>48.15271133333334</v>
+      </c>
+      <c r="H20">
+        <v>144.458134</v>
+      </c>
+      <c r="I20">
+        <v>0.5021016855662869</v>
+      </c>
+      <c r="J20">
+        <v>0.5021016855662868</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>3.702912333333333</v>
+      </c>
+      <c r="N20">
+        <v>11.108737</v>
+      </c>
+      <c r="O20">
+        <v>0.009823161582447691</v>
+      </c>
+      <c r="P20">
+        <v>0.009823161582447689</v>
+      </c>
+      <c r="Q20">
+        <v>178.3052686796398</v>
+      </c>
+      <c r="R20">
+        <v>1604.747418116758</v>
+      </c>
+      <c r="S20">
+        <v>0.00493222598813698</v>
+      </c>
+      <c r="T20">
+        <v>0.004932225988136978</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>48.15271133333334</v>
+      </c>
+      <c r="H21">
+        <v>144.458134</v>
+      </c>
+      <c r="I21">
+        <v>0.5021016855662869</v>
+      </c>
+      <c r="J21">
+        <v>0.5021016855662868</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.006638666666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.019916</v>
+      </c>
+      <c r="O21">
+        <v>1.761119072996581E-05</v>
+      </c>
+      <c r="P21">
+        <v>1.761119072996581E-05</v>
+      </c>
+      <c r="Q21">
+        <v>0.3196697996382222</v>
+      </c>
+      <c r="R21">
+        <v>2.877028196744</v>
+      </c>
+      <c r="S21">
+        <v>8.842608550345198E-06</v>
+      </c>
+      <c r="T21">
+        <v>8.842608550345196E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>48.15271133333334</v>
+      </c>
+      <c r="H22">
+        <v>144.458134</v>
+      </c>
+      <c r="I22">
+        <v>0.5021016855662869</v>
+      </c>
+      <c r="J22">
+        <v>0.5021016855662868</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>301.3939006666666</v>
+      </c>
+      <c r="N22">
+        <v>904.181702</v>
+      </c>
+      <c r="O22">
+        <v>0.7995439048236145</v>
+      </c>
+      <c r="P22">
+        <v>0.7995439048236146</v>
+      </c>
+      <c r="Q22">
+        <v>14512.93349642934</v>
+      </c>
+      <c r="R22">
+        <v>130616.4014678641</v>
+      </c>
+      <c r="S22">
+        <v>0.4014523422961876</v>
+      </c>
+      <c r="T22">
+        <v>0.4014523422961876</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>48.15271133333334</v>
+      </c>
+      <c r="H23">
+        <v>144.458134</v>
+      </c>
+      <c r="I23">
+        <v>0.5021016855662869</v>
+      </c>
+      <c r="J23">
+        <v>0.5021016855662868</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.075583</v>
+      </c>
+      <c r="N23">
+        <v>0.226749</v>
+      </c>
+      <c r="O23">
+        <v>0.0002005081284810714</v>
+      </c>
+      <c r="P23">
+        <v>0.0002005081284810714</v>
+      </c>
+      <c r="Q23">
+        <v>3.639526380707333</v>
+      </c>
+      <c r="R23">
+        <v>32.755737426366</v>
+      </c>
+      <c r="S23">
+        <v>0.0001006754692800875</v>
+      </c>
+      <c r="T23">
+        <v>0.0001006754692800875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>35.65443533333333</v>
-      </c>
-      <c r="H19">
-        <v>106.963306</v>
-      </c>
-      <c r="I19">
-        <v>0.41602796200245</v>
-      </c>
-      <c r="J19">
-        <v>0.41602796200245</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>224.6466153333333</v>
-      </c>
-      <c r="N19">
-        <v>673.939846</v>
-      </c>
-      <c r="O19">
-        <v>0.5549143553507024</v>
-      </c>
-      <c r="P19">
-        <v>0.5549143553507024</v>
-      </c>
-      <c r="Q19">
-        <v>8009.648219254541</v>
-      </c>
-      <c r="R19">
-        <v>72086.83397329086</v>
-      </c>
-      <c r="S19">
-        <v>0.230859888342456</v>
-      </c>
-      <c r="T19">
-        <v>0.230859888342456</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>48.15271133333334</v>
+      </c>
+      <c r="H24">
+        <v>144.458134</v>
+      </c>
+      <c r="I24">
+        <v>0.5021016855662869</v>
+      </c>
+      <c r="J24">
+        <v>0.5021016855662868</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>19.983405</v>
+      </c>
+      <c r="N24">
+        <v>59.950215</v>
+      </c>
+      <c r="O24">
+        <v>0.05301238555269418</v>
+      </c>
+      <c r="P24">
+        <v>0.05301238555269418</v>
+      </c>
+      <c r="Q24">
+        <v>962.2551324220901</v>
+      </c>
+      <c r="R24">
+        <v>8660.29619179881</v>
+      </c>
+      <c r="S24">
+        <v>0.02661760814189762</v>
+      </c>
+      <c r="T24">
+        <v>0.02661760814189762</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>48.15271133333334</v>
+      </c>
+      <c r="H25">
+        <v>144.458134</v>
+      </c>
+      <c r="I25">
+        <v>0.5021016855662869</v>
+      </c>
+      <c r="J25">
+        <v>0.5021016855662868</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>51.79484666666666</v>
+      </c>
+      <c r="N25">
+        <v>155.38454</v>
+      </c>
+      <c r="O25">
+        <v>0.1374024287220326</v>
+      </c>
+      <c r="P25">
+        <v>0.1374024287220326</v>
+      </c>
+      <c r="Q25">
+        <v>2494.062300094262</v>
+      </c>
+      <c r="R25">
+        <v>22446.56070084836</v>
+      </c>
+      <c r="S25">
+        <v>0.06898999106223416</v>
+      </c>
+      <c r="T25">
+        <v>0.06898999106223414</v>
       </c>
     </row>
   </sheetData>
